--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Resources table</t>
   </si>
@@ -34,7 +34,13 @@
     <t>c</t>
   </si>
   <si>
+    <t>int64</t>
+  </si>
+  <si>
     <t>object</t>
+  </si>
+  <si>
+    <t>float64</t>
   </si>
 </sst>
 </file>
@@ -412,7 +418,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +426,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
